--- a/XX_Url/Lowes.xlsx
+++ b/XX_Url/Lowes.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - Corona\03_Proy_ID\03_MACHINE_LEARNING\01_Projects\11_Web_Scrapping\Pricing\Scrapping_git\XX_Url\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D19650-3F70-4D4E-9E01-CE85A0838F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{17D19650-3F70-4D4E-9E01-CE85A0838F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7255EE-2042-457F-A13D-8BFD4B845290}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="HomeDepot_URL" sheetId="2" r:id="rId1"/>
+    <sheet name="URL" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/XX_Url/Lowes.xlsx
+++ b/XX_Url/Lowes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{17D19650-3F70-4D4E-9E01-CE85A0838F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A7255EE-2042-457F-A13D-8BFD4B845290}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{17D19650-3F70-4D4E-9E01-CE85A0838F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CB4D1A-C5C6-46A2-A6CA-4B28D806A4E8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="128">
   <si>
     <t>Linea</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Bowl Height</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Standard</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>4115-3106</t>
   </si>
   <si>
-    <t>Barrett</t>
-  </si>
-  <si>
     <t>Mansfield Barrett White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
   </si>
   <si>
@@ -219,9 +213,6 @@
     <t>148-153</t>
   </si>
   <si>
-    <t>Quantum</t>
-  </si>
-  <si>
     <t>Mansfield QuantumOne White Elongated Chair Height 2-piece WaterSense Toilet 12-in Rough-In Size (Ada Compliant)</t>
   </si>
   <si>
@@ -327,22 +318,103 @@
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Homólogo Mansfield</t>
-  </si>
-  <si>
     <t>Mansfield</t>
   </si>
   <si>
     <t>760</t>
   </si>
   <si>
-    <t xml:space="preserve">Elongated  </t>
-  </si>
-  <si>
     <t>1,1/1,6</t>
   </si>
   <si>
-    <t xml:space="preserve">Round  </t>
+    <t>Homologo Mansfield</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>CTK</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Round Front</t>
+  </si>
+  <si>
+    <t>Mansfield Alto CTK 12 ADA RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Alto CTK 12 Std RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Barret</t>
+  </si>
+  <si>
+    <t>Mansfield Barret CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Brentwood CTK 12 ADA EL 1,6 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Brentwood CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Broadway CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Cascade CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Denali CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Mansfield Elementary CTK 10 Juvenile - children RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Enso CTK 12 Std - Smartheight EL 1,1 gpf/1,6 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Maverick CTK 12 Std - Smartheight EL 1</t>
+  </si>
+  <si>
+    <t>Mansfield Nyren CTK 12 Std EL 1,6 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Pro-Fit CTK 12 Std EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Quantum One</t>
+  </si>
+  <si>
+    <t>Mansfield Quantum One CTK 12 ADA EL 1</t>
+  </si>
+  <si>
+    <t>Mansfield Summit CTK 12 ADA EL 1,1 gpf/1,6 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Summit CTK 10 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Summit CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Summit CTK 12 Std RF 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield Vanquish CTK 12 ADA EL 1,28 gpf</t>
+  </si>
+  <si>
+    <t>Mansfield VX1 CTK 12 Std RF 1,28 gpf</t>
   </si>
 </sst>
 </file>
@@ -890,7 +962,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,6 +1000,9 @@
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1286,10 +1361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1297,813 +1372,965 @@
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="214" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="87.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="87.5703125" customWidth="1"/>
+    <col min="12" max="12" width="214" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="31.5">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
+      <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="31.5">
+      <c r="A4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31.5">
+      <c r="A5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="31.5">
+      <c r="A6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31.5">
+      <c r="A7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31.5">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.5">
+      <c r="A9" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.5">
+      <c r="A10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="31.5">
+      <c r="A11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31.5">
+      <c r="A12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="31.5">
+      <c r="A13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="31.5">
+      <c r="A14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="31.5">
+      <c r="A15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="H15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="31.5">
+      <c r="A16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31.5">
+      <c r="A17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="9">
+      <c r="G17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="31.5">
+      <c r="A18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="31.5">
+      <c r="A19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31.5">
+      <c r="A20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="9">
         <v>1.28</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="31.5">
-      <c r="A3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="J20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="31.5">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="H21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="31.5">
+      <c r="A22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="9">
+      <c r="G22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="9">
         <v>1.28</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="J22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="31.5">
+      <c r="A23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="31.5">
+      <c r="A24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="H24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="I24" s="9">
+        <v>1.28</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="31.5">
+      <c r="A25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="9">
+      <c r="G25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="9">
         <v>1.28</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.5">
-      <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H5" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="31.5">
-      <c r="A6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="7">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="31.5">
-      <c r="A7" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="31.5">
-      <c r="A8" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="31.5">
-      <c r="A9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="7">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="7">
-        <v>10</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="31.5">
-      <c r="A12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="7">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="31.5">
-      <c r="A13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="7">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="31.5">
-      <c r="A14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="11">
-        <v>760</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="7">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="31.5">
-      <c r="A15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="7">
-        <v>12</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="31.5">
-      <c r="A16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="7">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="31.5">
-      <c r="A17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="7">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="31.5">
-      <c r="A18" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="7">
-        <v>12</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="31.5">
-      <c r="A19" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="7">
-        <v>12</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="31.5">
-      <c r="A20" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="7">
-        <v>10</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="31.5">
-      <c r="A21" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="7">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="31.5">
-      <c r="A22" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="7">
-        <v>12</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="31.5">
-      <c r="A23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="7">
-        <v>12</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="31.5">
-      <c r="A24" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="7">
-        <v>12</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="J25" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="31.5">
-      <c r="A25" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="K25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="7">
-        <v>12</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1.28</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
